--- a/NhapHangV2.API/Template/MainOrderRevenueReportTemplate.xlsx
+++ b/NhapHangV2.API/Template/MainOrderRevenueReportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepha\source\repos\NhapHangV2\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C392D6-C389-4B3A-B864-4A32E2E85F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB519F-3188-4F52-AA19-9A8DA0EB11A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{02581432-CE5D-467D-A091-258165F70FF4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{02581432-CE5D-467D-A091-258165F70FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,12 +149,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,48 +480,48 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -528,29 +534,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
